--- a/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.79451590513385</v>
+        <v>90.02718649887707</v>
       </c>
       <c r="D2" t="n">
-        <v>1.318973246984649</v>
+        <v>1.219179129250096</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.06262257534027</v>
+        <v>88.87992575528767</v>
       </c>
       <c r="D3" t="n">
-        <v>1.36148385125698</v>
+        <v>1.384834233522877</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.22981859229118</v>
+        <v>88.0743682063766</v>
       </c>
       <c r="D4" t="n">
-        <v>1.316094903793137</v>
+        <v>1.209713028531562</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.14281138880293</v>
+        <v>86.93810505654972</v>
       </c>
       <c r="D5" t="n">
-        <v>1.245019213351265</v>
+        <v>1.220263656180304</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.15596123736142</v>
+        <v>85.99780201940122</v>
       </c>
       <c r="D6" t="n">
-        <v>1.292845394502054</v>
+        <v>1.355361630598275</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.84587369184378</v>
+        <v>84.85993411311615</v>
       </c>
       <c r="D7" t="n">
-        <v>1.189964133778764</v>
+        <v>1.217186822810942</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.9286471422059</v>
+        <v>83.9422046020139</v>
       </c>
       <c r="D8" t="n">
-        <v>1.34125892640576</v>
+        <v>1.342498800936273</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.84290011063506</v>
+        <v>82.96787968415752</v>
       </c>
       <c r="D9" t="n">
-        <v>1.338122810808603</v>
+        <v>1.312716597029365</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.04617913488363</v>
+        <v>81.89636675942781</v>
       </c>
       <c r="D10" t="n">
-        <v>1.234630747026893</v>
+        <v>1.26542557507379</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02689771163467</v>
+        <v>81.08097542350306</v>
       </c>
       <c r="D11" t="n">
-        <v>1.271028256785406</v>
+        <v>1.195269050469241</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.06115535725688</v>
+        <v>80.07617776237997</v>
       </c>
       <c r="D12" t="n">
-        <v>1.299736513414161</v>
+        <v>1.4351431568585</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.85443606038623</v>
+        <v>78.80625957084429</v>
       </c>
       <c r="D13" t="n">
-        <v>1.358623912833066</v>
+        <v>1.44352086379314</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.88371951297978</v>
+        <v>78.10148965141023</v>
       </c>
       <c r="D14" t="n">
-        <v>1.379126931033134</v>
+        <v>1.423652588972977</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.17228286051883</v>
+        <v>76.93901531897178</v>
       </c>
       <c r="D15" t="n">
-        <v>1.253615097931967</v>
+        <v>1.312455450998036</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.85978627885406</v>
+        <v>76.11719458986968</v>
       </c>
       <c r="D16" t="n">
-        <v>1.34714091590505</v>
+        <v>1.23555899479562</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.98393454843736</v>
+        <v>75.06780464274897</v>
       </c>
       <c r="D17" t="n">
-        <v>1.215745164177197</v>
+        <v>1.326312787092622</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.97346760415122</v>
+        <v>74.11844664794995</v>
       </c>
       <c r="D18" t="n">
-        <v>1.17554472878695</v>
+        <v>1.237447264960683</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.99198156673302</v>
+        <v>73.02420037282668</v>
       </c>
       <c r="D19" t="n">
-        <v>1.409493256916749</v>
+        <v>1.312554832342147</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.92604727462584</v>
+        <v>72.03631421781743</v>
       </c>
       <c r="D20" t="n">
-        <v>1.282541691574928</v>
+        <v>1.305420844461108</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.15088842241113</v>
+        <v>70.96327831826881</v>
       </c>
       <c r="D21" t="n">
-        <v>1.43596175551806</v>
+        <v>1.268368341702782</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.11796686524912</v>
+        <v>69.95911764329894</v>
       </c>
       <c r="D22" t="n">
-        <v>1.378222747157092</v>
+        <v>1.391018465867174</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.86738802740545</v>
+        <v>68.9624326752653</v>
       </c>
       <c r="D23" t="n">
-        <v>1.352402942634987</v>
+        <v>1.23210624330671</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.95711199781154</v>
+        <v>67.95821809630237</v>
       </c>
       <c r="D24" t="n">
-        <v>1.200721929429243</v>
+        <v>1.335673912670479</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.03188131131809</v>
+        <v>67.21018146631747</v>
       </c>
       <c r="D25" t="n">
-        <v>1.265003455674852</v>
+        <v>1.425787284766201</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.93401225305882</v>
+        <v>65.7266982528797</v>
       </c>
       <c r="D26" t="n">
-        <v>1.24981613385996</v>
+        <v>1.226603280571271</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.07434085951375</v>
+        <v>64.9349104816354</v>
       </c>
       <c r="D27" t="n">
-        <v>1.137504404983843</v>
+        <v>1.280889790768964</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.92571991008037</v>
+        <v>63.87188596302592</v>
       </c>
       <c r="D28" t="n">
-        <v>1.179489696971964</v>
+        <v>1.368973846760903</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02511344421409</v>
+        <v>62.82608700596189</v>
       </c>
       <c r="D29" t="n">
-        <v>1.174331199099536</v>
+        <v>1.303828739224819</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.12143732179825</v>
+        <v>62.15361301410485</v>
       </c>
       <c r="D30" t="n">
-        <v>1.318128862334352</v>
+        <v>1.179483146403541</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.00311857084386</v>
+        <v>60.91501550799381</v>
       </c>
       <c r="D31" t="n">
-        <v>1.182463513929919</v>
+        <v>1.258657858772331</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.09871138569937</v>
+        <v>59.93888597982485</v>
       </c>
       <c r="D32" t="n">
-        <v>1.194938692368751</v>
+        <v>1.222659529645272</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.94651612720157</v>
+        <v>58.93362490219673</v>
       </c>
       <c r="D33" t="n">
-        <v>1.328128984759312</v>
+        <v>1.214459863410024</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.08691625468857</v>
+        <v>57.84671714618847</v>
       </c>
       <c r="D34" t="n">
-        <v>1.221768204892161</v>
+        <v>1.328580217494092</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.042508833245</v>
+        <v>56.90809258564136</v>
       </c>
       <c r="D35" t="n">
-        <v>1.268149286849068</v>
+        <v>1.447828628065851</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.86524564285749</v>
+        <v>56.05285828271359</v>
       </c>
       <c r="D36" t="n">
-        <v>1.292525261776239</v>
+        <v>1.281103508396525</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.99863519822263</v>
+        <v>54.99667326066064</v>
       </c>
       <c r="D37" t="n">
-        <v>1.180396561936931</v>
+        <v>1.130295711189996</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.89207121382671</v>
+        <v>53.96911567576932</v>
       </c>
       <c r="D38" t="n">
-        <v>1.296320591907415</v>
+        <v>1.395675361000986</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.10773560192463</v>
+        <v>52.85622119180844</v>
       </c>
       <c r="D39" t="n">
-        <v>1.371606537839167</v>
+        <v>1.012049645042892</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.14570489742162</v>
+        <v>52.21176934803987</v>
       </c>
       <c r="D40" t="n">
-        <v>1.295800118107573</v>
+        <v>1.361246690882175</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.06178913830689</v>
+        <v>50.90325058640447</v>
       </c>
       <c r="D41" t="n">
-        <v>1.312283015139628</v>
+        <v>1.09481102403239</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.88568101451833</v>
+        <v>49.98799015054563</v>
       </c>
       <c r="D42" t="n">
-        <v>1.299766386478472</v>
+        <v>1.154590207350871</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.03076476527145</v>
+        <v>48.93460868884105</v>
       </c>
       <c r="D43" t="n">
-        <v>1.175088896006132</v>
+        <v>1.250590278948922</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14615862139931</v>
+        <v>47.98412217259172</v>
       </c>
       <c r="D44" t="n">
-        <v>1.201176645049384</v>
+        <v>1.23248316009865</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.91441650249057</v>
+        <v>46.93748383647064</v>
       </c>
       <c r="D45" t="n">
-        <v>1.20735318251269</v>
+        <v>1.174643695977211</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.94635725520132</v>
+        <v>46.21412633774724</v>
       </c>
       <c r="D46" t="n">
-        <v>1.38004256374213</v>
+        <v>1.321923570919972</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.69440788344676</v>
+        <v>45.04095554078629</v>
       </c>
       <c r="D47" t="n">
-        <v>1.208361608290741</v>
+        <v>1.212709613300505</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.2371969025982</v>
+        <v>44.01448130866187</v>
       </c>
       <c r="D48" t="n">
-        <v>1.132680179182022</v>
+        <v>1.123121774931364</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.00180722166981</v>
+        <v>43.15084656099408</v>
       </c>
       <c r="D49" t="n">
-        <v>1.103711160508175</v>
+        <v>1.293419499219964</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.00403936015574</v>
+        <v>42.14590547399848</v>
       </c>
       <c r="D50" t="n">
-        <v>1.164570083718977</v>
+        <v>1.237107005475968</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.08349084738825</v>
+        <v>41.03836574370948</v>
       </c>
       <c r="D51" t="n">
-        <v>1.238715403956026</v>
+        <v>1.243295698168276</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.96798498482019</v>
+        <v>39.92430524590181</v>
       </c>
       <c r="D52" t="n">
-        <v>1.335424258938729</v>
+        <v>1.309568241477734</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.14917519568093</v>
+        <v>38.92097609830027</v>
       </c>
       <c r="D53" t="n">
-        <v>1.214773035264991</v>
+        <v>1.21851760133523</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.94645224268189</v>
+        <v>38.04407477707433</v>
       </c>
       <c r="D54" t="n">
-        <v>1.134111911959116</v>
+        <v>1.333577769660946</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.94145248895229</v>
+        <v>36.96779097397604</v>
       </c>
       <c r="D55" t="n">
-        <v>1.156798559633963</v>
+        <v>1.216036883452011</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.78838712731605</v>
+        <v>36.00804657943424</v>
       </c>
       <c r="D56" t="n">
-        <v>1.314599245269234</v>
+        <v>1.169636217077693</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.19497311442744</v>
+        <v>34.95690040448707</v>
       </c>
       <c r="D57" t="n">
-        <v>1.189667523298217</v>
+        <v>1.378599157557568</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.25032496394266</v>
+        <v>33.96750261291056</v>
       </c>
       <c r="D58" t="n">
-        <v>1.355755671819681</v>
+        <v>1.199471611255279</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.90954425689694</v>
+        <v>32.82257283343056</v>
       </c>
       <c r="D59" t="n">
-        <v>1.289885815659696</v>
+        <v>1.112060660898922</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.01012138004545</v>
+        <v>31.90877676291487</v>
       </c>
       <c r="D60" t="n">
-        <v>1.196651496193024</v>
+        <v>0.9958514892442504</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.05641725164453</v>
+        <v>30.90005389506557</v>
       </c>
       <c r="D61" t="n">
-        <v>1.154937777538927</v>
+        <v>1.350296902035149</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.14360035628449</v>
+        <v>29.76889941277871</v>
       </c>
       <c r="D62" t="n">
-        <v>1.071667029386305</v>
+        <v>1.063073005267841</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.93498364794646</v>
+        <v>28.83366499457603</v>
       </c>
       <c r="D63" t="n">
-        <v>1.329669556912494</v>
+        <v>1.150827623852432</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.88731573969396</v>
+        <v>27.96255355129017</v>
       </c>
       <c r="D64" t="n">
-        <v>1.198745106450009</v>
+        <v>1.383353446361608</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.08847794663695</v>
+        <v>27.06250943873227</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14250393064642</v>
+        <v>1.220155541990326</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.00688719355193</v>
+        <v>26.00101801268897</v>
       </c>
       <c r="D66" t="n">
-        <v>1.262959327436516</v>
+        <v>1.303441990026517</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.98033039893322</v>
+        <v>25.08402442488478</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08881979444695</v>
+        <v>1.096368642194032</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.06442344966996</v>
+        <v>23.98241671683163</v>
       </c>
       <c r="D68" t="n">
-        <v>1.31202502392187</v>
+        <v>1.13101483932686</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.20885450035739</v>
+        <v>23.05147994751917</v>
       </c>
       <c r="D69" t="n">
-        <v>1.120972160417357</v>
+        <v>1.09501168327873</v>
       </c>
     </row>
   </sheetData>
